--- a/data/doctor_schedules/dr_evelyn_reed_schedule.xlsx
+++ b/data/doctor_schedules/dr_evelyn_reed_schedule.xlsx
@@ -659,11 +659,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>Booked</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PAT0051</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Returning Patient</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">

--- a/data/doctor_schedules/dr_evelyn_reed_schedule.xlsx
+++ b/data/doctor_schedules/dr_evelyn_reed_schedule.xlsx
@@ -1267,11 +1267,19 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+          <t>Booked</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>PAT0051</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Returning Patient</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1723,11 +1731,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+          <t>Booked</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>PAT0051</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Returning Patient</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
